--- a/willairwayvirtual34/app_data/wavschedule.xlsx
+++ b/willairwayvirtual34/app_data/wavschedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisStudioProj\wav web\willairwayvirtual34\willairwayvirtual34\app_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\willairwayvirtual34\willairwayvirtual34\app_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937DD66C-511E-4F30-9DFD-677F46DFB9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734A5B4-DA17-4AF2-89B5-7EC3C8799D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wavschedule" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="764">
   <si>
     <t>AircraftType</t>
   </si>
@@ -2303,13 +2303,25 @@
   </si>
   <si>
     <t>g-bmfp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 OCTOVER at 21.00z</t>
+  </si>
+  <si>
+    <t>wavwfo1</t>
+  </si>
+  <si>
+    <t>7TH NOVEMBER at09.30.z</t>
+  </si>
+  <si>
+    <t>747-4000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2339,6 +2351,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2526"/>
+      <name val="Europa"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2360,7 +2390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2398,11 +2428,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2411,6 +2452,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2753,17 +2804,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L220" sqref="L220:L224"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="Q248" sqref="Q248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2869,7 +2922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2922,7 +2975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -2975,7 +3028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3028,7 +3081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3081,7 +3134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3134,7 +3187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -3187,7 +3240,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -3241,7 +3294,7 @@
       </c>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -3295,7 +3348,7 @@
       </c>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3349,7 +3402,7 @@
       </c>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -3403,7 +3456,7 @@
       </c>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>93</v>
       </c>
@@ -3457,7 +3510,7 @@
       </c>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
@@ -3511,7 +3564,7 @@
       </c>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -3565,7 +3618,7 @@
       </c>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -3619,7 +3672,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>105</v>
       </c>
@@ -3673,7 +3726,7 @@
       </c>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>108</v>
       </c>
@@ -3727,7 +3780,7 @@
       </c>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>108</v>
       </c>
@@ -3781,7 +3834,7 @@
       </c>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -3835,7 +3888,7 @@
       </c>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -3889,7 +3942,7 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -3943,7 +3996,7 @@
       </c>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
@@ -3997,7 +4050,7 @@
       </c>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -4051,7 +4104,7 @@
       </c>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -4105,7 +4158,7 @@
       </c>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -4159,7 +4212,7 @@
       </c>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -4213,7 +4266,7 @@
       </c>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -4267,7 +4320,7 @@
       </c>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -4321,7 +4374,7 @@
       </c>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
@@ -4375,7 +4428,7 @@
       </c>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
@@ -4407,7 +4460,7 @@
         <v>148</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>149</v>
@@ -4429,7 +4482,7 @@
       </c>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -4461,7 +4514,7 @@
         <v>43</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>149</v>
@@ -4483,7 +4536,7 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -4515,7 +4568,7 @@
         <v>158</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>149</v>
@@ -4537,7 +4590,7 @@
       </c>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -4569,7 +4622,7 @@
         <v>164</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>149</v>
@@ -4591,7 +4644,7 @@
       </c>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
@@ -4645,7 +4698,7 @@
       </c>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -4699,7 +4752,7 @@
       </c>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -4753,7 +4806,7 @@
       </c>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
@@ -4807,7 +4860,7 @@
       </c>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -4861,7 +4914,7 @@
       </c>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -4915,7 +4968,7 @@
       </c>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -4969,7 +5022,7 @@
       </c>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -5023,7 +5076,7 @@
       </c>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>96</v>
       </c>
@@ -5077,7 +5130,7 @@
       </c>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>191</v>
       </c>
@@ -5131,7 +5184,7 @@
       </c>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -5185,7 +5238,7 @@
       </c>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -5239,7 +5292,7 @@
       </c>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
@@ -5293,7 +5346,7 @@
       </c>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -5347,7 +5400,7 @@
       </c>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -5401,7 +5454,7 @@
       </c>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
@@ -5455,7 +5508,7 @@
       </c>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
@@ -5509,7 +5562,7 @@
       </c>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>201</v>
       </c>
@@ -5563,7 +5616,7 @@
       </c>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -5617,7 +5670,7 @@
       </c>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -5671,7 +5724,7 @@
       </c>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -5725,7 +5778,7 @@
       </c>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>201</v>
       </c>
@@ -5779,7 +5832,7 @@
       </c>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
@@ -5833,7 +5886,7 @@
       </c>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>191</v>
       </c>
@@ -5887,7 +5940,7 @@
       </c>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
@@ -5941,7 +5994,7 @@
       </c>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
@@ -5995,7 +6048,7 @@
       </c>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
@@ -6049,7 +6102,7 @@
       </c>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>93</v>
       </c>
@@ -6103,7 +6156,7 @@
       </c>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
@@ -6157,7 +6210,7 @@
       </c>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>37</v>
       </c>
@@ -6211,7 +6264,7 @@
       </c>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
@@ -6265,7 +6318,7 @@
       </c>
       <c r="S65" s="3"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
@@ -6319,7 +6372,7 @@
       </c>
       <c r="S66" s="3"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>239</v>
       </c>
@@ -6373,7 +6426,7 @@
       </c>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>239</v>
       </c>
@@ -6427,7 +6480,7 @@
       </c>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>17</v>
       </c>
@@ -6481,7 +6534,7 @@
       </c>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -6535,7 +6588,7 @@
       </c>
       <c r="S70" s="3"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>46</v>
       </c>
@@ -6589,7 +6642,7 @@
       </c>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>46</v>
       </c>
@@ -6643,7 +6696,7 @@
       </c>
       <c r="S72" s="3"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
@@ -6697,7 +6750,7 @@
       </c>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
@@ -6751,7 +6804,7 @@
       </c>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>37</v>
       </c>
@@ -6805,7 +6858,7 @@
       </c>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>37</v>
       </c>
@@ -6859,7 +6912,7 @@
       </c>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>37</v>
       </c>
@@ -6913,7 +6966,7 @@
       </c>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>37</v>
       </c>
@@ -6967,7 +7020,7 @@
       </c>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>17</v>
       </c>
@@ -7021,7 +7074,7 @@
       </c>
       <c r="S79" s="3"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>17</v>
       </c>
@@ -7075,7 +7128,7 @@
       </c>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -7129,7 +7182,7 @@
       </c>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -7183,7 +7236,7 @@
       </c>
       <c r="S82" s="3"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -7237,7 +7290,7 @@
       </c>
       <c r="S83" s="3"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>37</v>
       </c>
@@ -7291,7 +7344,7 @@
       </c>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>37</v>
       </c>
@@ -7345,7 +7398,7 @@
       </c>
       <c r="S85" s="3"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -7399,7 +7452,7 @@
       </c>
       <c r="S86" s="3"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -7453,7 +7506,7 @@
       </c>
       <c r="S87" s="3"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>37</v>
       </c>
@@ -7507,7 +7560,7 @@
       </c>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>37</v>
       </c>
@@ -7561,7 +7614,7 @@
       </c>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>37</v>
       </c>
@@ -7615,7 +7668,7 @@
       </c>
       <c r="S90" s="3"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>37</v>
       </c>
@@ -7669,7 +7722,7 @@
       </c>
       <c r="S91" s="3"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>37</v>
       </c>
@@ -7723,7 +7776,7 @@
       </c>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>37</v>
       </c>
@@ -7777,7 +7830,7 @@
       </c>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>37</v>
       </c>
@@ -7831,7 +7884,7 @@
       </c>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -7885,7 +7938,7 @@
       </c>
       <c r="S95" s="3"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>17</v>
       </c>
@@ -7939,7 +7992,7 @@
       </c>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>17</v>
       </c>
@@ -7993,7 +8046,7 @@
       </c>
       <c r="S97" s="3"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
@@ -8047,7 +8100,7 @@
       </c>
       <c r="S98" s="3"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>37</v>
       </c>
@@ -8101,7 +8154,7 @@
       </c>
       <c r="S99" s="3"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>37</v>
       </c>
@@ -8155,7 +8208,7 @@
       </c>
       <c r="S100" s="3"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>37</v>
       </c>
@@ -8209,7 +8262,7 @@
       </c>
       <c r="S101" s="3"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>37</v>
       </c>
@@ -8263,7 +8316,7 @@
       </c>
       <c r="S102" s="3"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>46</v>
       </c>
@@ -8317,7 +8370,7 @@
       </c>
       <c r="S103" s="3"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>46</v>
       </c>
@@ -8371,7 +8424,7 @@
       </c>
       <c r="S104" s="3"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>46</v>
       </c>
@@ -8425,7 +8478,7 @@
       </c>
       <c r="S105" s="3"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>46</v>
       </c>
@@ -8479,7 +8532,7 @@
       </c>
       <c r="S106" s="3"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>46</v>
       </c>
@@ -8533,7 +8586,7 @@
       </c>
       <c r="S107" s="3"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
@@ -8587,7 +8640,7 @@
       </c>
       <c r="S108" s="3"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>46</v>
       </c>
@@ -8641,7 +8694,7 @@
       </c>
       <c r="S109" s="3"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>46</v>
       </c>
@@ -8695,7 +8748,7 @@
       </c>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -8749,7 +8802,7 @@
       </c>
       <c r="S111" s="3"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -8803,7 +8856,7 @@
       </c>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -8857,7 +8910,7 @@
       </c>
       <c r="S113" s="3"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -8911,7 +8964,7 @@
       </c>
       <c r="S114" s="3"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>46</v>
       </c>
@@ -8965,7 +9018,7 @@
       </c>
       <c r="S115" s="3"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>46</v>
       </c>
@@ -9019,7 +9072,7 @@
       </c>
       <c r="S116" s="3"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>105</v>
       </c>
@@ -9073,7 +9126,7 @@
       </c>
       <c r="S117" s="3"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>105</v>
       </c>
@@ -9127,7 +9180,7 @@
       </c>
       <c r="S118" s="3"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>105</v>
       </c>
@@ -9181,7 +9234,7 @@
       </c>
       <c r="S119" s="3"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>105</v>
       </c>
@@ -9235,7 +9288,7 @@
       </c>
       <c r="S120" s="3"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>37</v>
       </c>
@@ -9289,7 +9342,7 @@
       </c>
       <c r="S121" s="3"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>37</v>
       </c>
@@ -9343,7 +9396,7 @@
       </c>
       <c r="S122" s="3"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>37</v>
       </c>
@@ -9397,7 +9450,7 @@
       </c>
       <c r="S123" s="3"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>37</v>
       </c>
@@ -9451,7 +9504,7 @@
       </c>
       <c r="S124" s="3"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>17</v>
       </c>
@@ -9505,7 +9558,7 @@
       </c>
       <c r="S125" s="3"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>17</v>
       </c>
@@ -9559,7 +9612,7 @@
       </c>
       <c r="S126" s="3"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>108</v>
       </c>
@@ -9613,7 +9666,7 @@
       </c>
       <c r="S127" s="3"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>108</v>
       </c>
@@ -9667,7 +9720,7 @@
       </c>
       <c r="S128" s="3"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>108</v>
       </c>
@@ -9721,7 +9774,7 @@
       </c>
       <c r="S129" s="3"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>108</v>
       </c>
@@ -9775,7 +9828,7 @@
       </c>
       <c r="S130" s="3"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>46</v>
       </c>
@@ -9829,7 +9882,7 @@
       </c>
       <c r="S131" s="3"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>46</v>
       </c>
@@ -9883,7 +9936,7 @@
       </c>
       <c r="S132" s="3"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>46</v>
       </c>
@@ -9937,7 +9990,7 @@
       </c>
       <c r="S133" s="3"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>46</v>
       </c>
@@ -9991,7 +10044,7 @@
       </c>
       <c r="S134" s="3"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>37</v>
       </c>
@@ -10045,7 +10098,7 @@
       </c>
       <c r="S135" s="3"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>37</v>
       </c>
@@ -10099,7 +10152,7 @@
       </c>
       <c r="S136" s="3"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>46</v>
       </c>
@@ -10153,7 +10206,7 @@
       </c>
       <c r="S137" s="3"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>46</v>
       </c>
@@ -10207,7 +10260,7 @@
       </c>
       <c r="S138" s="3"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>108</v>
       </c>
@@ -10261,7 +10314,7 @@
       </c>
       <c r="S139" s="3"/>
     </row>
-    <row r="140" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
@@ -10315,7 +10368,7 @@
       </c>
       <c r="S140" s="3"/>
     </row>
-    <row r="141" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>17</v>
       </c>
@@ -10369,7 +10422,7 @@
       </c>
       <c r="S141" s="3"/>
     </row>
-    <row r="142" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>96</v>
       </c>
@@ -10423,7 +10476,7 @@
       </c>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>96</v>
       </c>
@@ -10477,7 +10530,7 @@
       </c>
       <c r="S143" s="3"/>
     </row>
-    <row r="144" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>17</v>
       </c>
@@ -10531,7 +10584,7 @@
       </c>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>17</v>
       </c>
@@ -10585,7 +10638,7 @@
       </c>
       <c r="S145" s="3"/>
     </row>
-    <row r="146" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>96</v>
       </c>
@@ -10639,7 +10692,7 @@
       </c>
       <c r="S146" s="3"/>
     </row>
-    <row r="147" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>96</v>
       </c>
@@ -10693,7 +10746,7 @@
       </c>
       <c r="S147" s="3"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>37</v>
       </c>
@@ -10747,7 +10800,7 @@
       </c>
       <c r="S148" s="3"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>17</v>
       </c>
@@ -10801,7 +10854,7 @@
       </c>
       <c r="S149" s="3"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>37</v>
       </c>
@@ -10855,7 +10908,7 @@
       </c>
       <c r="S150" s="3"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>17</v>
       </c>
@@ -10909,7 +10962,7 @@
       </c>
       <c r="S151" s="3"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>17</v>
       </c>
@@ -10963,7 +11016,7 @@
       </c>
       <c r="S152" s="3"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>108</v>
       </c>
@@ -11017,7 +11070,7 @@
       </c>
       <c r="S153" s="3"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>108</v>
       </c>
@@ -11071,7 +11124,7 @@
       </c>
       <c r="S154" s="3"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>108</v>
       </c>
@@ -11125,7 +11178,7 @@
       </c>
       <c r="S155" s="3"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>37</v>
       </c>
@@ -11179,7 +11232,7 @@
       </c>
       <c r="S156" s="3"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>17</v>
       </c>
@@ -11233,7 +11286,7 @@
       </c>
       <c r="S157" s="3"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>85</v>
       </c>
@@ -11287,7 +11340,7 @@
       </c>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>85</v>
       </c>
@@ -11341,7 +11394,7 @@
       </c>
       <c r="S159" s="3"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -11395,7 +11448,7 @@
       </c>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -11449,7 +11502,7 @@
       </c>
       <c r="S161" s="3"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -11503,7 +11556,7 @@
       </c>
       <c r="S162" s="3"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>548</v>
       </c>
@@ -11557,7 +11610,7 @@
       </c>
       <c r="S163" s="3"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>548</v>
       </c>
@@ -11611,7 +11664,7 @@
       </c>
       <c r="S164" s="3"/>
     </row>
-    <row r="165" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>548</v>
       </c>
@@ -11665,7 +11718,7 @@
       </c>
       <c r="S165" s="3"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>201</v>
       </c>
@@ -11719,7 +11772,7 @@
       </c>
       <c r="S166" s="3"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>555</v>
       </c>
@@ -11773,7 +11826,7 @@
       </c>
       <c r="S167" s="3"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>201</v>
       </c>
@@ -11827,7 +11880,7 @@
       </c>
       <c r="S168" s="3"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>85</v>
       </c>
@@ -11881,7 +11934,7 @@
       </c>
       <c r="S169" s="3"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>85</v>
       </c>
@@ -11935,7 +11988,7 @@
       </c>
       <c r="S170" s="3"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>85</v>
       </c>
@@ -11989,7 +12042,7 @@
       </c>
       <c r="S171" s="3"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>548</v>
       </c>
@@ -12043,7 +12096,7 @@
       </c>
       <c r="S172" s="3"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>85</v>
       </c>
@@ -12097,7 +12150,7 @@
       </c>
       <c r="S173" s="3"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -12151,7 +12204,7 @@
       </c>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -12205,7 +12258,7 @@
       </c>
       <c r="S175" s="3"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>37</v>
       </c>
@@ -12259,7 +12312,7 @@
       </c>
       <c r="S176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>37</v>
       </c>
@@ -12313,7 +12366,7 @@
       </c>
       <c r="S177" s="3"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>37</v>
       </c>
@@ -12367,7 +12420,7 @@
       </c>
       <c r="S178" s="3"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>37</v>
       </c>
@@ -12421,7 +12474,7 @@
       </c>
       <c r="S179" s="3"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>37</v>
       </c>
@@ -12475,7 +12528,7 @@
       </c>
       <c r="S180" s="3"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>37</v>
       </c>
@@ -12529,7 +12582,7 @@
       </c>
       <c r="S181" s="3"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>46</v>
       </c>
@@ -12583,7 +12636,7 @@
       </c>
       <c r="S182" s="3"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>46</v>
       </c>
@@ -12637,7 +12690,7 @@
       </c>
       <c r="S183" s="3"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>46</v>
       </c>
@@ -12691,7 +12744,7 @@
       </c>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>46</v>
       </c>
@@ -12745,7 +12798,7 @@
       </c>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>37</v>
       </c>
@@ -12799,7 +12852,7 @@
       </c>
       <c r="S186" s="3"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>37</v>
       </c>
@@ -12853,7 +12906,7 @@
       </c>
       <c r="S187" s="3"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>37</v>
       </c>
@@ -12907,7 +12960,7 @@
       </c>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>37</v>
       </c>
@@ -12961,7 +13014,7 @@
       </c>
       <c r="S189" s="3"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>46</v>
       </c>
@@ -13015,7 +13068,7 @@
       </c>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>46</v>
       </c>
@@ -13069,7 +13122,7 @@
       </c>
       <c r="S191" s="3"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>17</v>
       </c>
@@ -13123,7 +13176,7 @@
       </c>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>46</v>
       </c>
@@ -13177,7 +13230,7 @@
       </c>
       <c r="S193" s="3"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>17</v>
       </c>
@@ -13231,7 +13284,7 @@
       </c>
       <c r="S194" s="3"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
@@ -13285,7 +13338,7 @@
       </c>
       <c r="S195" s="3"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
@@ -13339,7 +13392,7 @@
       </c>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>17</v>
       </c>
@@ -13393,7 +13446,7 @@
       </c>
       <c r="S197" s="3"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>17</v>
       </c>
@@ -13447,7 +13500,7 @@
       </c>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>17</v>
       </c>
@@ -13501,7 +13554,7 @@
       </c>
       <c r="S199" s="3"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>17</v>
       </c>
@@ -13555,7 +13608,7 @@
       </c>
       <c r="S200" s="3"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>46</v>
       </c>
@@ -13609,7 +13662,7 @@
       </c>
       <c r="S201" s="3"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>17</v>
       </c>
@@ -13663,7 +13716,7 @@
       </c>
       <c r="S202" s="3"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>17</v>
       </c>
@@ -13717,7 +13770,7 @@
       </c>
       <c r="S203" s="3"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>17</v>
       </c>
@@ -13771,7 +13824,7 @@
       </c>
       <c r="S204" s="3"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>17</v>
       </c>
@@ -13825,7 +13878,7 @@
       </c>
       <c r="S205" s="3"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>67</v>
       </c>
@@ -13879,7 +13932,7 @@
       </c>
       <c r="S206" s="3"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>67</v>
       </c>
@@ -13933,7 +13986,7 @@
       </c>
       <c r="S207" s="3"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>67</v>
       </c>
@@ -13987,7 +14040,7 @@
       </c>
       <c r="S208" s="3"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>67</v>
       </c>
@@ -14041,7 +14094,7 @@
       </c>
       <c r="S209" s="3"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>67</v>
       </c>
@@ -14095,7 +14148,7 @@
       </c>
       <c r="S210" s="3"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>67</v>
       </c>
@@ -14149,7 +14202,7 @@
       </c>
       <c r="S211" s="3"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>67</v>
       </c>
@@ -14203,7 +14256,7 @@
       </c>
       <c r="S212" s="3"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>67</v>
       </c>
@@ -14257,7 +14310,7 @@
       </c>
       <c r="S213" s="3"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>67</v>
       </c>
@@ -14311,7 +14364,7 @@
       </c>
       <c r="S214" s="3"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>67</v>
       </c>
@@ -14365,7 +14418,7 @@
       </c>
       <c r="S215" s="3"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>37</v>
       </c>
@@ -14419,7 +14472,7 @@
       </c>
       <c r="S216" s="3"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>37</v>
       </c>
@@ -14473,7 +14526,7 @@
       </c>
       <c r="S217" s="3"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>37</v>
       </c>
@@ -14527,7 +14580,7 @@
       </c>
       <c r="S218" s="3"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>37</v>
       </c>
@@ -14581,7 +14634,7 @@
       </c>
       <c r="S219" s="3"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>679</v>
       </c>
@@ -14635,7 +14688,7 @@
       </c>
       <c r="S220" s="3"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>679</v>
       </c>
@@ -14689,7 +14742,7 @@
       </c>
       <c r="S221" s="3"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>679</v>
       </c>
@@ -14743,7 +14796,7 @@
       </c>
       <c r="S222" s="3"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>679</v>
       </c>
@@ -14797,7 +14850,7 @@
       </c>
       <c r="S223" s="3"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>679</v>
       </c>
@@ -14851,7 +14904,7 @@
       </c>
       <c r="S224" s="3"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>37</v>
       </c>
@@ -14905,7 +14958,7 @@
       </c>
       <c r="S225" s="3"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>108</v>
       </c>
@@ -14959,7 +15012,7 @@
       </c>
       <c r="S226" s="3"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>17</v>
       </c>
@@ -15013,7 +15066,7 @@
       </c>
       <c r="S227" s="3"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>17</v>
       </c>
@@ -15067,7 +15120,7 @@
       </c>
       <c r="S228" s="3"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>37</v>
       </c>
@@ -15121,7 +15174,7 @@
       </c>
       <c r="S229" s="3"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>37</v>
       </c>
@@ -15175,7 +15228,7 @@
       </c>
       <c r="S230" s="3"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>17</v>
       </c>
@@ -15229,7 +15282,7 @@
       </c>
       <c r="S231" s="3"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>108</v>
       </c>
@@ -15283,7 +15336,7 @@
       </c>
       <c r="S232" s="3"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>108</v>
       </c>
@@ -15337,7 +15390,7 @@
       </c>
       <c r="S233" s="3"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>108</v>
       </c>
@@ -15391,7 +15444,7 @@
       </c>
       <c r="S234" s="3"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>108</v>
       </c>
@@ -15445,7 +15498,7 @@
       </c>
       <c r="S235" s="3"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>37</v>
       </c>
@@ -15499,7 +15552,7 @@
       </c>
       <c r="S236" s="3"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>108</v>
       </c>
@@ -15553,7 +15606,7 @@
       </c>
       <c r="S237" s="3"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>108</v>
       </c>
@@ -15607,7 +15660,7 @@
       </c>
       <c r="S238" s="3"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>108</v>
       </c>
@@ -15661,7 +15714,7 @@
       </c>
       <c r="S239" s="3"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>108</v>
       </c>
@@ -15715,7 +15768,7 @@
       </c>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>37</v>
       </c>
@@ -15769,7 +15822,7 @@
       </c>
       <c r="S241" s="3"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>37</v>
       </c>
@@ -15823,7 +15876,7 @@
       </c>
       <c r="S242" s="3"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>108</v>
       </c>
@@ -15877,7 +15930,7 @@
       </c>
       <c r="S243" s="3"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>17</v>
       </c>
@@ -15931,7 +15984,7 @@
       </c>
       <c r="S244" s="3"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>17</v>
       </c>
@@ -15985,7 +16038,7 @@
       </c>
       <c r="S245" s="3"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>17</v>
       </c>
@@ -16039,7 +16092,7 @@
       </c>
       <c r="S246" s="3"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>17</v>
       </c>
@@ -16093,43 +16146,92 @@
       </c>
       <c r="S247" s="3"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S248" s="3"/>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E248" s="6">
+        <v>13</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G248" s="6">
+        <v>13</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L248" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O248" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q248" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="S248" s="7"/>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S249" s="3"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q250" s="3"/>
       <c r="S250" s="3"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q251" s="3"/>
       <c r="S251" s="3"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S252" s="3"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S253" s="3"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S254" s="3"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S255" s="3"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S256" s="3"/>
     </row>
-    <row r="257" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S257" s="3"/>
     </row>
-    <row r="258" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S258" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/willairwayvirtual34/app_data/wavschedule.xlsx
+++ b/willairwayvirtual34/app_data/wavschedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisStudioProj\wav web\willairwayvirtual34\willairwayvirtual34\app_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wijsoftware-my.sharepoint.com/personal/admin_wijsoftware_onmicrosoft_com/Documents/WIJ employment/VisStudioProj/web Projects/willairwayvirtual34/willairwayvirtual34/app_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7661ABB-21ED-4417-8ADE-C3C99A458DD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D7661ABB-21ED-4417-8ADE-C3C99A458DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4514A0EE-36B6-4956-90D1-A5C8A4BEF044}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="510" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wavschedule" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="642">
   <si>
     <t>AircraftType</t>
   </si>
@@ -1546,24 +1546,9 @@
     <t>wav87</t>
   </si>
   <si>
-    <t>wav991</t>
-  </si>
-  <si>
-    <t>any airpot</t>
-  </si>
-  <si>
-    <t>Available for standby</t>
-  </si>
-  <si>
-    <t>we email a trip</t>
-  </si>
-  <si>
     <t>you are stlll on duty</t>
   </si>
   <si>
-    <t>wav999</t>
-  </si>
-  <si>
     <t>wavbus1</t>
   </si>
   <si>
@@ -1747,78 +1732,6 @@
     <t>17.06z</t>
   </si>
   <si>
-    <t>wavctp1</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>kiad</t>
-  </si>
-  <si>
-    <t>10i</t>
-  </si>
-  <si>
-    <t>wavctp2</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>kord</t>
-  </si>
-  <si>
-    <t>302i</t>
-  </si>
-  <si>
-    <t>wavctp3</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>304i</t>
-  </si>
-  <si>
-    <t>23.35z</t>
-  </si>
-  <si>
-    <t>wavctp4</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>cyyz</t>
-  </si>
-  <si>
-    <t>100i</t>
-  </si>
-  <si>
-    <t>20.55z</t>
-  </si>
-  <si>
-    <t>wavctp5</t>
-  </si>
-  <si>
-    <t>kmoc</t>
-  </si>
-  <si>
-    <t>10.54z</t>
-  </si>
-  <si>
-    <t>wavctp6</t>
-  </si>
-  <si>
-    <t>kbos</t>
-  </si>
-  <si>
-    <t>08.25z</t>
-  </si>
-  <si>
-    <t>08.54z</t>
-  </si>
-  <si>
     <t>wavdow1</t>
   </si>
   <si>
@@ -1873,108 +1786,6 @@
     <t>wavdow6</t>
   </si>
   <si>
-    <t>wavh1</t>
-  </si>
-  <si>
-    <t>01.40z</t>
-  </si>
-  <si>
-    <t>wavh10</t>
-  </si>
-  <si>
-    <t>kmia</t>
-  </si>
-  <si>
-    <t>b12</t>
-  </si>
-  <si>
-    <t>10.31z</t>
-  </si>
-  <si>
-    <t>wavh2</t>
-  </si>
-  <si>
-    <t>wavh3</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>20c</t>
-  </si>
-  <si>
-    <t>wavh4</t>
-  </si>
-  <si>
-    <t>9.10z</t>
-  </si>
-  <si>
-    <t>21.51.Z</t>
-  </si>
-  <si>
-    <t>0918z</t>
-  </si>
-  <si>
-    <t>16.55z</t>
-  </si>
-  <si>
-    <t>wavh5</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>20..40z</t>
-  </si>
-  <si>
-    <t>03.00z</t>
-  </si>
-  <si>
-    <t>wavh6</t>
-  </si>
-  <si>
-    <t>9.50z</t>
-  </si>
-  <si>
-    <t>9.57z</t>
-  </si>
-  <si>
-    <t>wavh7</t>
-  </si>
-  <si>
-    <t>16.18z</t>
-  </si>
-  <si>
-    <t>wavh8</t>
-  </si>
-  <si>
-    <t>wavh9</t>
-  </si>
-  <si>
-    <t>20.25z</t>
-  </si>
-  <si>
-    <t>wavhaw1</t>
-  </si>
-  <si>
-    <t>14t</t>
-  </si>
-  <si>
-    <t>phnl</t>
-  </si>
-  <si>
-    <t>05.01z</t>
-  </si>
-  <si>
-    <t>21.55z</t>
-  </si>
-  <si>
-    <t>wavhaw2</t>
-  </si>
-  <si>
-    <t>03.27z</t>
-  </si>
-  <si>
     <t>9.40z</t>
   </si>
   <si>
@@ -2089,57 +1900,9 @@
     <t>wavtf5</t>
   </si>
   <si>
-    <t>07.25z</t>
-  </si>
-  <si>
-    <t>wavus1</t>
-  </si>
-  <si>
-    <t>wavus10</t>
-  </si>
-  <si>
-    <t>12.19z</t>
-  </si>
-  <si>
-    <t>wavus11</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>16.21z</t>
-  </si>
-  <si>
-    <t>03.53z</t>
-  </si>
-  <si>
-    <t>wavus12</t>
-  </si>
-  <si>
-    <t>07.21z</t>
-  </si>
-  <si>
-    <t>2.40z</t>
-  </si>
-  <si>
-    <t>wavus13</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>wavus14</t>
-  </si>
-  <si>
-    <t>16.54z</t>
-  </si>
-  <si>
     <t>00.03z</t>
   </si>
   <si>
-    <t>wavus15</t>
-  </si>
-  <si>
     <t>d54</t>
   </si>
   <si>
@@ -2147,129 +1910,6 @@
   </si>
   <si>
     <t>02.10z</t>
-  </si>
-  <si>
-    <t>wavus16</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-  <si>
-    <t>06.50z</t>
-  </si>
-  <si>
-    <t>20.20Z</t>
-  </si>
-  <si>
-    <t>wavus17</t>
-  </si>
-  <si>
-    <t>22.00Z</t>
-  </si>
-  <si>
-    <t>19.40Z</t>
-  </si>
-  <si>
-    <t>15.41z</t>
-  </si>
-  <si>
-    <t>wavus18</t>
-  </si>
-  <si>
-    <t>h15</t>
-  </si>
-  <si>
-    <t>c65</t>
-  </si>
-  <si>
-    <t>18.43z</t>
-  </si>
-  <si>
-    <t>1500z</t>
-  </si>
-  <si>
-    <t>1850z</t>
-  </si>
-  <si>
-    <t>wavus19</t>
-  </si>
-  <si>
-    <t>c63</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>14.18z</t>
-  </si>
-  <si>
-    <t>1100z</t>
-  </si>
-  <si>
-    <t>12.05z</t>
-  </si>
-  <si>
-    <t>wavus2</t>
-  </si>
-  <si>
-    <t>19.21z</t>
-  </si>
-  <si>
-    <t>19.25z</t>
-  </si>
-  <si>
-    <t>18.05z</t>
-  </si>
-  <si>
-    <t>wavus3</t>
-  </si>
-  <si>
-    <t>wavus4</t>
-  </si>
-  <si>
-    <t>wavus5</t>
-  </si>
-  <si>
-    <t>16.40z</t>
-  </si>
-  <si>
-    <t>16.58z</t>
-  </si>
-  <si>
-    <t>wavus6</t>
-  </si>
-  <si>
-    <t>wavus7</t>
-  </si>
-  <si>
-    <t>kden</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>9.35z</t>
-  </si>
-  <si>
-    <t>7.30z</t>
-  </si>
-  <si>
-    <t>07.59z</t>
-  </si>
-  <si>
-    <t>wavus8</t>
-  </si>
-  <si>
-    <t>08.15z</t>
-  </si>
-  <si>
-    <t>wavus9</t>
-  </si>
-  <si>
-    <t>09.48z</t>
-  </si>
-  <si>
-    <t>701z</t>
   </si>
   <si>
     <t>wwdc1</t>
@@ -2439,23 +2079,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2476,9 +2116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2516,9 +2156,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2551,26 +2191,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2603,26 +2226,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2796,18 +2402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S258"/>
+  <dimension ref="A1:S211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D134" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:XFD215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -10277,7 +9883,7 @@
         <v>126</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>56</v>
@@ -10308,255 +9914,255 @@
       </c>
       <c r="S139" s="3"/>
     </row>
-    <row r="140" spans="1:19" ht="30">
+    <row r="140" spans="1:19">
       <c r="A140" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M140" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="N140" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="Q140" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S140" s="3"/>
     </row>
-    <row r="141" spans="1:19" ht="30">
+    <row r="141" spans="1:19">
       <c r="A141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>508</v>
+        <v>233</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="S141" s="3"/>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="Q141" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="S141" s="3"/>
-    </row>
-    <row r="142" spans="1:19" ht="30">
-      <c r="A142" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>508</v>
+        <v>144</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>509</v>
+        <v>27</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q142" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="Q142" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" ht="30">
+    <row r="143" spans="1:19">
       <c r="A143" s="2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>508</v>
+        <v>20</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="K143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M143" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="L143" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="N143" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="S143" s="3"/>
     </row>
-    <row r="144" spans="1:19" ht="30">
+    <row r="144" spans="1:19">
       <c r="A144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>512</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>508</v>
+        <v>110</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>509</v>
+        <v>27</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>28</v>
@@ -10568,175 +10174,175 @@
         <v>29</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>512</v>
       </c>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" ht="30">
+    <row r="145" spans="1:19">
       <c r="A145" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>182</v>
+        <v>513</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>508</v>
+        <v>110</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>182</v>
+        <v>515</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>182</v>
+        <v>516</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>182</v>
+        <v>517</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S145" s="3"/>
     </row>
-    <row r="146" spans="1:19" ht="30">
+    <row r="146" spans="1:19">
       <c r="A146" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>182</v>
+        <v>518</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>520</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>139</v>
+        <v>520</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>182</v>
+        <v>521</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="S146" s="3"/>
     </row>
-    <row r="147" spans="1:19" ht="30">
+    <row r="147" spans="1:19">
       <c r="A147" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>182</v>
+        <v>518</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>508</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>523</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>139</v>
+        <v>524</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>182</v>
+        <v>525</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>182</v>
+        <v>526</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="S147" s="3"/>
     </row>
@@ -10745,31 +10351,31 @@
         <v>37</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>216</v>
+        <v>528</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>218</v>
+        <v>526</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>95</v>
+        <v>334</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>27</v>
@@ -10778,7 +10384,7 @@
         <v>28</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>29</v>
@@ -10790,7 +10396,7 @@
         <v>31</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="S148" s="3"/>
     </row>
@@ -10799,31 +10405,31 @@
         <v>17</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="H149" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>27</v>
@@ -10832,7 +10438,7 @@
         <v>28</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>29</v>
@@ -10844,40 +10450,40 @@
         <v>31</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="S149" s="3"/>
     </row>
     <row r="150" spans="1:19">
       <c r="A150" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>222</v>
+        <v>531</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>32</v>
+        <v>532</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>27</v>
@@ -10886,7 +10492,7 @@
         <v>28</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>29</v>
@@ -10898,41 +10504,41 @@
         <v>31</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="S150" s="3"/>
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>198</v>
+        <v>374</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="I151" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J151" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="K151" s="2" t="s">
         <v>27</v>
       </c>
@@ -10940,7 +10546,7 @@
         <v>28</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>29</v>
@@ -10952,40 +10558,40 @@
         <v>31</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="S151" s="3"/>
     </row>
     <row r="152" spans="1:19">
       <c r="A152" s="2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>20</v>
+        <v>536</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>147</v>
+        <v>537</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>27</v>
@@ -10994,7 +10600,7 @@
         <v>28</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>29</v>
@@ -11006,40 +10612,40 @@
         <v>31</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="S152" s="3"/>
     </row>
     <row r="153" spans="1:19">
       <c r="A153" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>518</v>
+        <v>32</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>521</v>
+        <v>26</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>522</v>
+        <v>153</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>27</v>
@@ -11048,52 +10654,52 @@
         <v>28</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="S153" s="3"/>
     </row>
     <row r="154" spans="1:19">
       <c r="A154" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>523</v>
+        <v>220</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>525</v>
+        <v>90</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>525</v>
+        <v>90</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>526</v>
+        <v>223</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>27</v>
@@ -11102,52 +10708,52 @@
         <v>28</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="S154" s="3"/>
     </row>
     <row r="155" spans="1:19">
       <c r="A155" s="2" t="s">
-        <v>108</v>
+        <v>541</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>523</v>
+        <v>439</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>528</v>
+        <v>90</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>529</v>
+        <v>90</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>269</v>
+        <v>544</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>531</v>
+        <v>123</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>27</v>
@@ -11156,52 +10762,52 @@
         <v>28</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="S155" s="3"/>
     </row>
     <row r="156" spans="1:19">
       <c r="A156" s="2" t="s">
-        <v>37</v>
+        <v>541</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>533</v>
+        <v>90</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>144</v>
+        <v>385</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>531</v>
+        <v>219</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>334</v>
+        <v>118</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>27</v>
@@ -11210,7 +10816,7 @@
         <v>28</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>29</v>
@@ -11222,49 +10828,49 @@
         <v>31</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="S156" s="3"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" ht="28.8">
       <c r="A157" s="2" t="s">
-        <v>17</v>
+        <v>541</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>228</v>
+        <v>487</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>27</v>
+        <v>507</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>29</v>
@@ -11276,40 +10882,40 @@
         <v>31</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="S157" s="3"/>
     </row>
     <row r="158" spans="1:19">
       <c r="A158" s="2" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>536</v>
+        <v>90</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>235</v>
+        <v>547</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>537</v>
+        <v>171</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>27</v>
@@ -11318,7 +10924,7 @@
         <v>28</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>29</v>
@@ -11330,19 +10936,19 @@
         <v>31</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="S158" s="3"/>
     </row>
     <row r="159" spans="1:19">
       <c r="A159" s="2" t="s">
-        <v>85</v>
+        <v>548</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>79</v>
@@ -11351,19 +10957,19 @@
         <v>90</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>539</v>
+        <v>57</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>27</v>
@@ -11372,7 +10978,7 @@
         <v>28</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>538</v>
+        <v>287</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>29</v>
@@ -11384,40 +10990,40 @@
         <v>31</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>538</v>
+        <v>287</v>
       </c>
       <c r="S159" s="3"/>
     </row>
     <row r="160" spans="1:19">
       <c r="A160" s="2" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>152</v>
+        <v>549</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>542</v>
+        <v>51</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>36</v>
+        <v>551</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>27</v>
@@ -11426,7 +11032,7 @@
         <v>28</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>540</v>
+        <v>415</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>29</v>
@@ -11438,40 +11044,40 @@
         <v>31</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>540</v>
+        <v>415</v>
       </c>
       <c r="S160" s="3"/>
     </row>
     <row r="161" spans="1:19">
       <c r="A161" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>32</v>
+        <v>552</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>233</v>
+        <v>374</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>153</v>
+        <v>555</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>27</v>
@@ -11480,7 +11086,7 @@
         <v>28</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>29</v>
@@ -11492,40 +11098,40 @@
         <v>31</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="S161" s="3"/>
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>32</v>
+        <v>394</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>27</v>
@@ -11534,7 +11140,7 @@
         <v>28</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>29</v>
@@ -11546,22 +11152,22 @@
         <v>31</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="S162" s="3"/>
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="2" t="s">
-        <v>546</v>
+        <v>85</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>439</v>
+        <v>273</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>90</v>
@@ -11573,13 +11179,13 @@
         <v>90</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>27</v>
@@ -11588,7 +11194,7 @@
         <v>28</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>29</v>
@@ -11600,40 +11206,40 @@
         <v>31</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="S163" s="3"/>
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>334</v>
+        <v>561</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>25</v>
+        <v>563</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>27</v>
@@ -11642,7 +11248,7 @@
         <v>28</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>29</v>
@@ -11654,49 +11260,49 @@
         <v>31</v>
       </c>
       <c r="Q164" s="2" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="S164" s="3"/>
     </row>
-    <row r="165" spans="1:19" ht="30">
+    <row r="165" spans="1:19">
       <c r="A165" s="2" t="s">
-        <v>546</v>
+        <v>85</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>387</v>
+        <v>56</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>118</v>
+        <v>356</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>123</v>
+        <v>560</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="L165" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="N165" s="2" t="s">
         <v>29</v>
@@ -11708,40 +11314,40 @@
         <v>31</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="S165" s="3"/>
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="2" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>552</v>
+        <v>218</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>27</v>
@@ -11750,7 +11356,7 @@
         <v>28</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="N166" s="2" t="s">
         <v>29</v>
@@ -11762,40 +11368,40 @@
         <v>31</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="S166" s="3"/>
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="2" t="s">
-        <v>553</v>
+        <v>93</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>20</v>
+        <v>536</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>171</v>
+        <v>568</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>27</v>
@@ -11804,7 +11410,7 @@
         <v>28</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>287</v>
+        <v>567</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>29</v>
@@ -11816,40 +11422,40 @@
         <v>31</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>287</v>
+        <v>567</v>
       </c>
       <c r="S167" s="3"/>
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="2" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>554</v>
+        <v>256</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>556</v>
+        <v>133</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>27</v>
@@ -11858,7 +11464,7 @@
         <v>28</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>415</v>
+        <v>569</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>29</v>
@@ -11870,40 +11476,40 @@
         <v>31</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>415</v>
+        <v>569</v>
       </c>
       <c r="S168" s="3"/>
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>291</v>
+        <v>571</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>90</v>
+        <v>572</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>560</v>
+        <v>57</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>27</v>
@@ -11912,7 +11518,7 @@
         <v>28</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>29</v>
@@ -11924,40 +11530,40 @@
         <v>31</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="S169" s="3"/>
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>347</v>
+        <v>574</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>291</v>
+        <v>571</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>90</v>
+        <v>572</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>562</v>
+        <v>153</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>394</v>
+        <v>133</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>27</v>
@@ -11966,7 +11572,7 @@
         <v>28</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>29</v>
@@ -11978,40 +11584,40 @@
         <v>31</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="S170" s="3"/>
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="2" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>565</v>
+        <v>99</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>27</v>
@@ -12020,7 +11626,7 @@
         <v>28</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="N171" s="2" t="s">
         <v>29</v>
@@ -12032,40 +11638,40 @@
         <v>31</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="S171" s="3"/>
     </row>
     <row r="172" spans="1:19">
       <c r="A172" s="2" t="s">
-        <v>546</v>
+        <v>37</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>566</v>
+        <v>32</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>133</v>
+        <v>544</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>27</v>
@@ -12074,7 +11680,7 @@
         <v>28</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="N172" s="2" t="s">
         <v>29</v>
@@ -12086,40 +11692,40 @@
         <v>31</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="S172" s="3"/>
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>56</v>
+        <v>337</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>570</v>
+        <v>231</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>356</v>
+        <v>123</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>565</v>
+        <v>298</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>27</v>
@@ -12128,7 +11734,7 @@
         <v>28</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>29</v>
@@ -12140,40 +11746,40 @@
         <v>31</v>
       </c>
       <c r="Q173" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="S173" s="3"/>
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>214</v>
+        <v>447</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>27</v>
@@ -12182,7 +11788,7 @@
         <v>28</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="N174" s="2" t="s">
         <v>29</v>
@@ -12194,40 +11800,40 @@
         <v>31</v>
       </c>
       <c r="Q174" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="S174" s="3"/>
     </row>
     <row r="175" spans="1:19">
       <c r="A175" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>269</v>
+        <v>581</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>18</v>
+        <v>583</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>387</v>
+        <v>584</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>27</v>
@@ -12236,7 +11842,7 @@
         <v>28</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>29</v>
@@ -12248,40 +11854,40 @@
         <v>31</v>
       </c>
       <c r="Q175" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="S175" s="3"/>
     </row>
     <row r="176" spans="1:19">
       <c r="A176" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>575</v>
+        <v>258</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>576</v>
+        <v>259</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>577</v>
+        <v>260</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>261</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>27</v>
@@ -12290,7 +11896,7 @@
         <v>28</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="N176" s="2" t="s">
         <v>29</v>
@@ -12302,40 +11908,40 @@
         <v>31</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="S176" s="3"/>
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>579</v>
+        <v>260</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>580</v>
+        <v>20</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>581</v>
+        <v>258</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>441</v>
+        <v>265</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>27</v>
@@ -12344,7 +11950,7 @@
         <v>28</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="N177" s="2" t="s">
         <v>29</v>
@@ -12356,40 +11962,40 @@
         <v>31</v>
       </c>
       <c r="Q177" s="2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="S177" s="3"/>
     </row>
     <row r="178" spans="1:19">
       <c r="A178" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>177</v>
+        <v>587</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G178" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>171</v>
+        <v>534</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>236</v>
+        <v>591</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>27</v>
@@ -12398,7 +12004,7 @@
         <v>28</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N178" s="2" t="s">
         <v>29</v>
@@ -12410,50 +12016,50 @@
         <v>31</v>
       </c>
       <c r="Q178" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="S178" s="3"/>
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F179" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M179" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G179" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K179" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L179" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M179" s="2" t="s">
-        <v>586</v>
-      </c>
       <c r="N179" s="2" t="s">
         <v>29</v>
       </c>
@@ -12464,40 +12070,40 @@
         <v>31</v>
       </c>
       <c r="Q179" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="S179" s="3"/>
     </row>
     <row r="180" spans="1:19">
       <c r="A180" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>396</v>
+        <v>279</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>27</v>
@@ -12506,7 +12112,7 @@
         <v>28</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="N180" s="2" t="s">
         <v>29</v>
@@ -12518,50 +12124,50 @@
         <v>31</v>
       </c>
       <c r="Q180" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="S180" s="3"/>
     </row>
     <row r="181" spans="1:19">
       <c r="A181" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>595</v>
+        <v>72</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>107</v>
+        <v>597</v>
       </c>
       <c r="H181" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M181" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="I181" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J181" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="K181" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L181" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M181" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="N181" s="2" t="s">
         <v>29</v>
       </c>
@@ -12572,40 +12178,40 @@
         <v>31</v>
       </c>
       <c r="Q181" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="S181" s="3"/>
     </row>
     <row r="182" spans="1:19">
       <c r="A182" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>258</v>
+        <v>597</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>123</v>
+        <v>387</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>27</v>
@@ -12614,7 +12220,7 @@
         <v>28</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N182" s="2" t="s">
         <v>29</v>
@@ -12626,40 +12232,40 @@
         <v>31</v>
       </c>
       <c r="Q182" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S182" s="3"/>
     </row>
     <row r="183" spans="1:19">
       <c r="A183" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>599</v>
+        <v>57</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>601</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>602</v>
+        <v>261</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>27</v>
@@ -12668,7 +12274,7 @@
         <v>28</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>29</v>
@@ -12680,40 +12286,40 @@
         <v>31</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="S183" s="3"/>
     </row>
     <row r="184" spans="1:19">
       <c r="A184" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>603</v>
+        <v>286</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>601</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>27</v>
@@ -12722,7 +12328,7 @@
         <v>28</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N184" s="2" t="s">
         <v>29</v>
@@ -12734,40 +12340,40 @@
         <v>31</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="S184" s="3"/>
     </row>
     <row r="185" spans="1:19">
       <c r="A185" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>605</v>
+        <v>81</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>27</v>
@@ -12776,7 +12382,7 @@
         <v>28</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N185" s="2" t="s">
         <v>29</v>
@@ -12788,40 +12394,40 @@
         <v>31</v>
       </c>
       <c r="Q185" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="S185" s="3"/>
     </row>
     <row r="186" spans="1:19">
       <c r="A186" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>89</v>
+        <v>604</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>549</v>
+        <v>231</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>27</v>
@@ -12830,7 +12436,7 @@
         <v>28</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>29</v>
@@ -12842,40 +12448,40 @@
         <v>31</v>
       </c>
       <c r="Q186" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="S186" s="3"/>
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>606</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>89</v>
+        <v>604</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>307</v>
+        <v>72</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>123</v>
+        <v>607</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>27</v>
@@ -12905,31 +12511,31 @@
         <v>37</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>608</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>301</v>
+        <v>460</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>317</v>
+        <v>24</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>609</v>
+        <v>25</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>27</v>
@@ -12959,31 +12565,31 @@
         <v>37</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>610</v>
+        <v>404</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>608</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>301</v>
+        <v>460</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>20</v>
+        <v>609</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>300</v>
+        <v>610</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>611</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>612</v>
+        <v>24</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>613</v>
+        <v>118</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>27</v>
@@ -13010,34 +12616,34 @@
     </row>
     <row r="190" spans="1:19">
       <c r="A190" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>20</v>
+        <v>609</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>258</v>
+        <v>610</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>123</v>
+        <v>613</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>27</v>
@@ -13046,7 +12652,7 @@
         <v>28</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N190" s="2" t="s">
         <v>29</v>
@@ -13058,40 +12664,40 @@
         <v>31</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="S190" s="3"/>
     </row>
     <row r="191" spans="1:19">
       <c r="A191" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>27</v>
@@ -13100,7 +12706,7 @@
         <v>28</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N191" s="2" t="s">
         <v>29</v>
@@ -13112,41 +12718,41 @@
         <v>31</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="S191" s="3"/>
     </row>
     <row r="192" spans="1:19">
       <c r="A192" s="2" t="s">
-        <v>17</v>
+        <v>614</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>160</v>
+        <v>617</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>110</v>
+        <v>616</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>146</v>
+        <v>617</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>147</v>
+        <v>618</v>
       </c>
       <c r="I192" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J192" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="K192" s="2" t="s">
         <v>27</v>
       </c>
@@ -13154,106 +12760,106 @@
         <v>28</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N192" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P192" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q192" s="2" t="s">
-        <v>616</v>
+      <c r="Q192" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="S192" s="3"/>
     </row>
     <row r="193" spans="1:19">
       <c r="A193" s="2" t="s">
-        <v>46</v>
+        <v>614</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E193" s="2" t="s">
+      <c r="F193" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M193" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="K193" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L193" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M193" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="N193" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q193" s="2" t="s">
-        <v>618</v>
+      <c r="Q193" s="3" t="s">
+        <v>636</v>
       </c>
       <c r="S193" s="3"/>
     </row>
     <row r="194" spans="1:19">
       <c r="A194" s="2" t="s">
-        <v>17</v>
+        <v>614</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="J194" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>27</v>
@@ -13262,52 +12868,52 @@
         <v>28</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P194" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q194" s="2" t="s">
-        <v>622</v>
+      <c r="Q194" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="S194" s="3"/>
     </row>
     <row r="195" spans="1:19">
       <c r="A195" s="2" t="s">
-        <v>17</v>
+        <v>614</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>286</v>
+        <v>52</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>623</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>20</v>
+        <v>616</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>481</v>
+        <v>616</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="I195" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J195" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="J195" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="K195" s="2" t="s">
         <v>27</v>
@@ -13322,67 +12928,67 @@
         <v>29</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P195" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q195" s="2" t="s">
-        <v>623</v>
+      <c r="Q195" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="S195" s="3"/>
     </row>
     <row r="196" spans="1:19">
       <c r="A196" s="2" t="s">
-        <v>17</v>
+        <v>614</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>481</v>
+        <v>616</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>20</v>
+        <v>616</v>
       </c>
       <c r="G196" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M196" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="H196" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J196" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L196" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M196" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="N196" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P196" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q196" s="2" t="s">
-        <v>626</v>
+      <c r="Q196" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="S196" s="3"/>
     </row>
@@ -13391,31 +12997,31 @@
         <v>17</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>630</v>
+        <v>18</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>632</v>
+        <v>23</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>633</v>
+        <v>26</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>27</v>
@@ -13424,19 +13030,19 @@
         <v>28</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P197" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q197" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="S197" s="3"/>
     </row>
@@ -13445,31 +13051,31 @@
         <v>17</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>634</v>
+        <v>118</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="I198" s="2" t="s">
-        <v>350</v>
+        <v>133</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>637</v>
+        <v>334</v>
       </c>
       <c r="K198" s="2" t="s">
         <v>27</v>
@@ -13478,19 +13084,19 @@
         <v>28</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P198" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q198" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="S198" s="3"/>
     </row>
@@ -13499,31 +13105,31 @@
         <v>17</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>329</v>
+        <v>32</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E199" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="H199" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>27</v>
@@ -13532,19 +13138,19 @@
         <v>28</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="N199" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P199" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q199" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="S199" s="3"/>
     </row>
@@ -13553,85 +13159,85 @@
         <v>17</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="S200" s="3"/>
+    </row>
+    <row r="201" spans="1:19" s="6" customFormat="1" ht="24">
+      <c r="A201" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="D201" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E201" s="6">
+        <v>13</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G201" s="6">
+        <v>13</v>
+      </c>
+      <c r="H201" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K200" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L200" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M200" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="N200" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O200" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P200" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q200" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="S200" s="3"/>
-    </row>
-    <row r="201" spans="1:19">
-      <c r="A201" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J201" s="2" t="s">
-        <v>317</v>
+      <c r="I201" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="K201" s="2" t="s">
         <v>27</v>
@@ -13639,2589 +13245,51 @@
       <c r="L201" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M201" s="2" t="s">
-        <v>641</v>
+      <c r="M201" s="5" t="s">
+        <v>639</v>
       </c>
       <c r="N201" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P201" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q201" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="S201" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q201" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="S201" s="7"/>
     </row>
     <row r="202" spans="1:19">
-      <c r="A202" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K202" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L202" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M202" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="N202" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O202" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P202" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q202" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="S202" s="3"/>
     </row>
     <row r="203" spans="1:19">
-      <c r="A203" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J203" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="K203" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L203" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M203" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="N203" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O203" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P203" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q203" s="2" t="s">
-        <v>643</v>
-      </c>
+      <c r="Q203" s="3"/>
       <c r="S203" s="3"/>
     </row>
     <row r="204" spans="1:19">
-      <c r="A204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K204" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L204" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M204" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="N204" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O204" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P204" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q204" s="2" t="s">
-        <v>648</v>
-      </c>
+      <c r="Q204" s="3"/>
       <c r="S204" s="3"/>
     </row>
     <row r="205" spans="1:19">
-      <c r="A205" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J205" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L205" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M205" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="N205" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O205" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P205" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q205" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="S205" s="3"/>
     </row>
     <row r="206" spans="1:19">
-      <c r="A206" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="J206" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="K206" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L206" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M206" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="N206" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O206" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P206" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q206" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="S206" s="3"/>
     </row>
     <row r="207" spans="1:19">
-      <c r="A207" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K207" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L207" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M207" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="N207" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O207" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P207" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q207" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="S207" s="3"/>
     </row>
     <row r="208" spans="1:19">
-      <c r="A208" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J208" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="K208" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L208" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M208" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="N208" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O208" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P208" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q208" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="S208" s="3"/>
     </row>
-    <row r="209" spans="1:19">
-      <c r="A209" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J209" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K209" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L209" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M209" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="N209" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O209" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P209" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q209" s="2" t="s">
-        <v>659</v>
-      </c>
+    <row r="209" spans="19:19">
       <c r="S209" s="3"/>
     </row>
-    <row r="210" spans="1:19">
-      <c r="A210" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L210" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M210" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="N210" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O210" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P210" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q210" s="2" t="s">
-        <v>662</v>
-      </c>
+    <row r="210" spans="19:19">
       <c r="S210" s="3"/>
     </row>
-    <row r="211" spans="1:19">
-      <c r="A211" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J211" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K211" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L211" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M211" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="N211" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O211" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P211" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q211" s="2" t="s">
-        <v>663</v>
-      </c>
+    <row r="211" spans="19:19">
       <c r="S211" s="3"/>
-    </row>
-    <row r="212" spans="1:19">
-      <c r="A212" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J212" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L212" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M212" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="N212" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O212" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P212" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q212" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="S212" s="3"/>
-    </row>
-    <row r="213" spans="1:19">
-      <c r="A213" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J213" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L213" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M213" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="N213" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O213" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P213" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q213" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="S213" s="3"/>
-    </row>
-    <row r="214" spans="1:19">
-      <c r="A214" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J214" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="K214" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L214" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M214" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="N214" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O214" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P214" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q214" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="S214" s="3"/>
-    </row>
-    <row r="215" spans="1:19">
-      <c r="A215" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="J215" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L215" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M215" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="N215" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O215" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P215" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q215" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="S215" s="3"/>
-    </row>
-    <row r="216" spans="1:19">
-      <c r="A216" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K216" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L216" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M216" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="N216" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O216" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P216" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q216" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="S216" s="3"/>
-    </row>
-    <row r="217" spans="1:19">
-      <c r="A217" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J217" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K217" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L217" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M217" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="N217" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O217" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P217" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q217" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="S217" s="3"/>
-    </row>
-    <row r="218" spans="1:19">
-      <c r="A218" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J218" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K218" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L218" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M218" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="N218" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O218" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P218" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q218" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="S218" s="3"/>
-    </row>
-    <row r="219" spans="1:19">
-      <c r="A219" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I219" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J219" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K219" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L219" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M219" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="N219" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O219" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P219" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q219" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="S219" s="3"/>
-    </row>
-    <row r="220" spans="1:19">
-      <c r="A220" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="I220" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J220" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K220" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L220" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M220" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="N220" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O220" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P220" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q220" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="S220" s="3"/>
-    </row>
-    <row r="221" spans="1:19">
-      <c r="A221" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I221" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J221" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K221" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L221" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M221" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="N221" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O221" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P221" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q221" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="S221" s="3"/>
-    </row>
-    <row r="222" spans="1:19">
-      <c r="A222" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I222" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="J222" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K222" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L222" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M222" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="N222" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O222" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P222" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q222" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="S222" s="3"/>
-    </row>
-    <row r="223" spans="1:19">
-      <c r="A223" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J223" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K223" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L223" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M223" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="N223" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O223" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P223" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q223" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="S223" s="3"/>
-    </row>
-    <row r="224" spans="1:19">
-      <c r="A224" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J224" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K224" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L224" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M224" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="N224" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O224" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P224" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q224" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="S224" s="3"/>
-    </row>
-    <row r="225" spans="1:19">
-      <c r="A225" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J225" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="K225" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L225" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M225" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="N225" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O225" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P225" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q225" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="S225" s="3"/>
-    </row>
-    <row r="226" spans="1:19">
-      <c r="A226" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J226" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K226" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L226" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M226" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="N226" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O226" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P226" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q226" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="S226" s="3"/>
-    </row>
-    <row r="227" spans="1:19">
-      <c r="A227" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J227" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K227" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L227" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M227" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="N227" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O227" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P227" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q227" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="S227" s="3"/>
-    </row>
-    <row r="228" spans="1:19">
-      <c r="A228" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="J228" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K228" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L228" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M228" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="N228" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O228" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P228" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q228" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="S228" s="3"/>
-    </row>
-    <row r="229" spans="1:19">
-      <c r="A229" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I229" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J229" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K229" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L229" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M229" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="N229" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O229" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P229" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q229" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="S229" s="3"/>
-    </row>
-    <row r="230" spans="1:19">
-      <c r="A230" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="I230" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J230" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K230" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L230" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M230" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="N230" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O230" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P230" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q230" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="S230" s="3"/>
-    </row>
-    <row r="231" spans="1:19">
-      <c r="A231" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I231" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="J231" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="K231" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L231" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M231" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="N231" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O231" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P231" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q231" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="S231" s="3"/>
-    </row>
-    <row r="232" spans="1:19">
-      <c r="A232" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="I232" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J232" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="K232" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L232" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M232" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="N232" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O232" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P232" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q232" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="S232" s="3"/>
-    </row>
-    <row r="233" spans="1:19">
-      <c r="A233" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K233" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L233" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M233" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="N233" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O233" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P233" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q233" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="S233" s="3"/>
-    </row>
-    <row r="234" spans="1:19">
-      <c r="A234" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="J234" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="K234" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L234" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M234" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="N234" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O234" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P234" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q234" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="S234" s="3"/>
-    </row>
-    <row r="235" spans="1:19">
-      <c r="A235" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="J235" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K235" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L235" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M235" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="N235" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O235" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P235" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q235" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="S235" s="3"/>
-    </row>
-    <row r="236" spans="1:19">
-      <c r="A236" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J236" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="K236" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L236" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M236" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="N236" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O236" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P236" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q236" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="S236" s="3"/>
-    </row>
-    <row r="237" spans="1:19">
-      <c r="A237" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J237" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K237" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L237" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M237" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="N237" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O237" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P237" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q237" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="S237" s="3"/>
-    </row>
-    <row r="238" spans="1:19">
-      <c r="A238" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="I238" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="J238" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K238" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L238" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M238" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="N238" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O238" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P238" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q238" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="S238" s="3"/>
-    </row>
-    <row r="239" spans="1:19">
-      <c r="A239" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J239" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="K239" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L239" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M239" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="N239" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O239" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P239" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q239" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="S239" s="3"/>
-    </row>
-    <row r="240" spans="1:19">
-      <c r="A240" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J240" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K240" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L240" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M240" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="N240" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O240" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P240" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q240" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="S240" s="3"/>
-    </row>
-    <row r="241" spans="1:19">
-      <c r="A241" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="I241" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="J241" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="K241" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L241" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M241" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="N241" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O241" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P241" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q241" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="S241" s="3"/>
-    </row>
-    <row r="242" spans="1:19">
-      <c r="A242" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I242" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J242" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="K242" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L242" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M242" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="N242" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O242" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P242" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q242" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="S242" s="3"/>
-    </row>
-    <row r="243" spans="1:19">
-      <c r="A243" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="I243" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="J243" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K243" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L243" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M243" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="N243" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O243" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P243" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q243" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="S243" s="3"/>
-    </row>
-    <row r="244" spans="1:19">
-      <c r="A244" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I244" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J244" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K244" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L244" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M244" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="N244" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O244" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P244" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q244" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="S244" s="3"/>
-    </row>
-    <row r="245" spans="1:19">
-      <c r="A245" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="I245" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J245" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K245" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L245" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M245" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="N245" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O245" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P245" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q245" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="S245" s="3"/>
-    </row>
-    <row r="246" spans="1:19">
-      <c r="A246" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I246" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J246" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K246" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L246" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M246" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="N246" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O246" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P246" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q246" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="S246" s="3"/>
-    </row>
-    <row r="247" spans="1:19">
-      <c r="A247" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I247" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="J247" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="K247" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L247" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M247" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="N247" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O247" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P247" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q247" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="S247" s="3"/>
-    </row>
-    <row r="248" spans="1:19" s="6" customFormat="1" ht="24">
-      <c r="A248" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E248" s="6">
-        <v>13</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G248" s="6">
-        <v>13</v>
-      </c>
-      <c r="H248" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="I248" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J248" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K248" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L248" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M248" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="N248" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O248" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q248" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="S248" s="7"/>
-    </row>
-    <row r="249" spans="1:19">
-      <c r="S249" s="3"/>
-    </row>
-    <row r="250" spans="1:19">
-      <c r="Q250" s="3"/>
-      <c r="S250" s="3"/>
-    </row>
-    <row r="251" spans="1:19">
-      <c r="Q251" s="3"/>
-      <c r="S251" s="3"/>
-    </row>
-    <row r="252" spans="1:19">
-      <c r="S252" s="3"/>
-    </row>
-    <row r="253" spans="1:19">
-      <c r="S253" s="3"/>
-    </row>
-    <row r="254" spans="1:19">
-      <c r="S254" s="3"/>
-    </row>
-    <row r="255" spans="1:19">
-      <c r="S255" s="3"/>
-    </row>
-    <row r="256" spans="1:19">
-      <c r="S256" s="3"/>
-    </row>
-    <row r="257" spans="19:19">
-      <c r="S257" s="3"/>
-    </row>
-    <row r="258" spans="19:19">
-      <c r="S258" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
